--- a/recorder/plgEvalFRF/Report_tmpl.xlsx
+++ b/recorder/plgEvalFRF/Report_tmpl.xlsx
@@ -1,18 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9E50C83-ECAF-4C4C-A852-891F67A30495}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="19416" windowHeight="10296"/>
   </bookViews>
   <sheets>
     <sheet name="шаблон отчета" sheetId="5" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="c_BlCount">'шаблон отчета'!$E$7</definedName>
-    <definedName name="c_decr">'шаблон отчета'!$M$25</definedName>
+    <definedName name="c_decr">'шаблон отчета'!$S$25</definedName>
     <definedName name="c_Sketch">'шаблон отчета'!$E$6</definedName>
     <definedName name="c_Stage">'шаблон отчета'!$E$19</definedName>
     <definedName name="c_Start">'шаблон отчета'!$B$25</definedName>
@@ -21,7 +20,7 @@
     <definedName name="c_ToneCount2">'шаблон отчета'!$E$9</definedName>
     <definedName name="c_Type">'шаблон отчета'!$E$17</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>дата</t>
   </si>
@@ -63,9 +62,6 @@
     <t>№</t>
   </si>
   <si>
-    <t>годность</t>
-  </si>
-  <si>
     <t>изделие</t>
   </si>
   <si>
@@ -100,9 +96,6 @@
   </si>
   <si>
     <t>лопатки НИОКР для ЦКТИ</t>
-  </si>
-  <si>
-    <t>0.019</t>
   </si>
   <si>
     <t>0.018</t>
@@ -180,22 +173,6 @@
   </si>
   <si>
     <r>
-      <t>декремент затухания для Т</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="204"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>Т</t>
     </r>
     <r>
@@ -306,11 +283,71 @@
   <si>
     <t>Отчет по результатам вибрационных испытаний</t>
   </si>
+  <si>
+    <r>
+      <t>декр. Т</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>декр. Т</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>декр. Т</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <t>62.403-0010.001</t>
+  </si>
+  <si>
+    <t>не годен</t>
+  </si>
+  <si>
+    <t>декр. Т4</t>
+  </si>
+  <si>
+    <t>Результат</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -344,7 +381,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -363,8 +400,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFA500"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -382,45 +425,17 @@
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
@@ -597,13 +612,63 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -614,9 +679,7 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -625,9 +688,7 @@
       </left>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -638,236 +699,202 @@
         <color indexed="64"/>
       </right>
       <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="66">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -1147,160 +1174,166 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:N38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1:W38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="T35" sqref="T35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" customWidth="1"/>
-    <col min="2" max="2" width="6.1796875" customWidth="1"/>
-    <col min="3" max="3" width="13.453125" customWidth="1"/>
-    <col min="4" max="9" width="6.453125" customWidth="1"/>
-    <col min="10" max="12" width="10.7265625" customWidth="1"/>
-    <col min="13" max="13" width="13.54296875" customWidth="1"/>
-    <col min="14" max="14" width="12.26953125" customWidth="1"/>
+    <col min="1" max="1" width="3.77734375" customWidth="1"/>
+    <col min="2" max="2" width="6.21875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="4" max="9" width="6.44140625" customWidth="1"/>
+    <col min="10" max="10" width="8.77734375" customWidth="1"/>
+    <col min="11" max="11" width="7.6640625" customWidth="1"/>
+    <col min="12" max="15" width="8.5546875" customWidth="1"/>
+    <col min="16" max="16" width="10.21875" customWidth="1"/>
+    <col min="17" max="17" width="11.77734375" customWidth="1"/>
+    <col min="19" max="19" width="10.77734375" customWidth="1"/>
+    <col min="23" max="23" width="11.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="F1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-    </row>
-    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="44" t="s">
+    <row r="1" spans="2:11" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F1" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="50"/>
+      <c r="H1" s="50"/>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="2" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="46"/>
-      <c r="E2" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="32"/>
-    </row>
-    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="24" t="s">
+      <c r="C2" s="35"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="56"/>
+    </row>
+    <row r="3" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="25"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="7" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-    </row>
-    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="41" t="s">
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="3"/>
+    </row>
+    <row r="4" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B4" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="43"/>
-      <c r="E4" s="37" t="s">
+      <c r="C4" s="45"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="57" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
-      <c r="J4" s="38"/>
-    </row>
-    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B5" s="24" t="s">
+      <c r="F4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="58"/>
+    </row>
+    <row r="5" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="42"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="28" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B6" s="41" t="s">
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="38"/>
+    </row>
+    <row r="6" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="39"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="39" t="s">
+        <v>46</v>
+      </c>
       <c r="F6" s="39"/>
       <c r="G6" s="39"/>
       <c r="H6" s="39"/>
       <c r="I6" s="39"/>
       <c r="J6" s="40"/>
     </row>
-    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B7" s="24" t="s">
+    <row r="7" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B7" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="17">
-        <v>3</v>
-      </c>
-      <c r="F7" s="17"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="18"/>
-    </row>
-    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B8" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="17">
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="51">
+        <v>11</v>
+      </c>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="52"/>
+    </row>
+    <row r="8" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B8" s="41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="42"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="51">
         <v>2</v>
       </c>
-      <c r="F8" s="17"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="18"/>
-    </row>
-    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="21" t="s">
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="51"/>
+      <c r="J8" s="52"/>
+    </row>
+    <row r="9" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B9" s="47" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="53">
+        <v>4</v>
+      </c>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="54"/>
+    </row>
+    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B10" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="19">
-        <v>5</v>
-      </c>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="32"/>
+      <c r="C10" s="55"/>
+      <c r="D10" s="55"/>
+      <c r="E10" s="55"/>
+      <c r="F10" s="56"/>
       <c r="G10" s="1">
         <v>1</v>
       </c>
@@ -1310,107 +1343,120 @@
       <c r="I10" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.35">
-      <c r="B11" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="C11" s="34"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="15">
-        <v>85</v>
-      </c>
-      <c r="H11" s="12">
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B11" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63"/>
+      <c r="G11" s="9">
+        <v>1</v>
+      </c>
+      <c r="H11" s="7">
+        <v>60</v>
+      </c>
+      <c r="I11" s="5">
         <v>175</v>
       </c>
-      <c r="I11" s="10"/>
-    </row>
-    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="9">
-        <v>105</v>
-      </c>
-      <c r="H12" s="13">
-        <v>215</v>
-      </c>
-      <c r="I12" s="11"/>
-    </row>
-    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="24" t="s">
+      <c r="J11">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B12" s="64" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="53"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="4">
+        <v>10</v>
+      </c>
+      <c r="H12" s="8">
+        <v>100</v>
+      </c>
+      <c r="I12" s="6">
+        <v>225</v>
+      </c>
+      <c r="J12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B13" s="41" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="31">
+      <c r="C13" s="42"/>
+      <c r="D13" s="43"/>
+      <c r="E13" s="55">
         <v>123456</v>
       </c>
-      <c r="F13" s="31"/>
-      <c r="G13" s="31"/>
-      <c r="H13" s="31"/>
-      <c r="I13" s="31"/>
-      <c r="J13" s="32"/>
-    </row>
-    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="24" t="s">
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+      <c r="H13" s="55"/>
+      <c r="I13" s="55"/>
+      <c r="J13" s="56"/>
+    </row>
+    <row r="14" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B14" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="28">
+      <c r="C14" s="42"/>
+      <c r="D14" s="43"/>
+      <c r="E14" s="37">
         <v>120</v>
       </c>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="41" t="s">
+      <c r="F14" s="37"/>
+      <c r="G14" s="37"/>
+      <c r="H14" s="37"/>
+      <c r="I14" s="37"/>
+      <c r="J14" s="38"/>
+    </row>
+    <row r="15" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="44" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="45"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="43"/>
-      <c r="E15" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="38"/>
-    </row>
-    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="24" t="s">
+      <c r="F15" s="57"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="58"/>
+    </row>
+    <row r="16" spans="2:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="41" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="42"/>
+      <c r="D16" s="43"/>
+      <c r="E16" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="F16" s="37"/>
+      <c r="G16" s="37"/>
+      <c r="H16" s="37"/>
+      <c r="I16" s="37"/>
+      <c r="J16" s="38"/>
+    </row>
+    <row r="17" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="44" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="45"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="39" t="s">
         <v>13</v>
-      </c>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B17" s="41" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="43"/>
-      <c r="E17" s="39" t="s">
-        <v>14</v>
       </c>
       <c r="F17" s="39"/>
       <c r="G17" s="39"/>
@@ -1418,29 +1464,29 @@
       <c r="I17" s="39"/>
       <c r="J17" s="40"/>
     </row>
-    <row r="18" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B18" s="24" t="s">
+    <row r="18" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="42"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="28" t="s">
+      <c r="F18" s="37"/>
+      <c r="G18" s="37"/>
+      <c r="H18" s="37"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="38"/>
+    </row>
+    <row r="19" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B19" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="43"/>
+      <c r="C19" s="45"/>
+      <c r="D19" s="46"/>
       <c r="E19" s="39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F19" s="39"/>
       <c r="G19" s="39"/>
@@ -1448,400 +1494,603 @@
       <c r="I19" s="39"/>
       <c r="J19" s="40"/>
     </row>
-    <row r="20" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B20" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="28"/>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B21" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="27" t="s">
+    <row r="20" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="41" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="42"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="37"/>
+      <c r="G20" s="37"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="37"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="48"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="59" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="2:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="2:23" ht="33.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="31"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="H23" s="31"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="K23" s="31"/>
+      <c r="L23" s="32"/>
+      <c r="M23" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="N23" s="31"/>
+      <c r="O23" s="32"/>
+      <c r="P23" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q23" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="28"/>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="23" spans="2:14" ht="33.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="54" t="s">
+      <c r="R23" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="S23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="T23" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="V23" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W23" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B24" s="28"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="12">
+        <v>1</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24" s="14">
+        <v>10</v>
+      </c>
+      <c r="G24" s="12">
+        <v>60</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I24" s="15">
+        <v>100</v>
+      </c>
+      <c r="J24" s="12">
+        <v>175</v>
+      </c>
+      <c r="K24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="15">
+        <v>225</v>
+      </c>
+      <c r="M24" s="12">
+        <v>250</v>
+      </c>
+      <c r="N24" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="O24" s="15">
+        <v>300</v>
+      </c>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="17"/>
+      <c r="R24" s="17"/>
+      <c r="S24" s="18"/>
+      <c r="T24" s="18"/>
+      <c r="U24" s="18"/>
+      <c r="V24" s="19"/>
+      <c r="W24" s="19"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B25" s="20">
+        <v>1</v>
+      </c>
+      <c r="C25" s="21">
+        <v>0</v>
+      </c>
+      <c r="D25" s="33">
+        <v>7.03125</v>
+      </c>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33">
+        <v>10.546875</v>
+      </c>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33">
+        <v>16.69921875</v>
+      </c>
+      <c r="K25" s="33"/>
+      <c r="L25" s="33"/>
+      <c r="M25" s="24">
+        <v>27.24609375</v>
+      </c>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="21">
+        <v>145</v>
+      </c>
+      <c r="Q25" s="21">
+        <v>256</v>
+      </c>
+      <c r="R25" s="21">
+        <v>341</v>
+      </c>
+      <c r="S25" s="26">
+        <v>5.03094329567913E-2</v>
+      </c>
+      <c r="T25" s="26">
+        <v>0</v>
+      </c>
+      <c r="U25" s="26">
+        <v>0</v>
+      </c>
+      <c r="V25" s="26">
+        <v>0</v>
+      </c>
+      <c r="W25" s="65" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="2:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="21">
+        <v>2</v>
+      </c>
+      <c r="C26" s="21"/>
+      <c r="D26" s="33">
+        <v>84</v>
+      </c>
+      <c r="E26" s="33"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33">
+        <v>180</v>
+      </c>
+      <c r="H26" s="33"/>
+      <c r="I26" s="33"/>
+      <c r="J26" s="33">
+        <v>180</v>
+      </c>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="21">
+        <v>141</v>
+      </c>
+      <c r="Q26" s="21">
+        <v>245</v>
+      </c>
+      <c r="R26" s="21">
+        <v>339</v>
+      </c>
+      <c r="S26" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="T26" s="22"/>
+      <c r="U26" s="22"/>
+      <c r="V26" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="W26" s="23"/>
+    </row>
+    <row r="27" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B27" s="21">
+        <v>3</v>
+      </c>
+      <c r="C27" s="21"/>
+      <c r="D27" s="33">
+        <v>101</v>
+      </c>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33">
+        <v>197</v>
+      </c>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33">
+        <v>197</v>
+      </c>
+      <c r="K27" s="33"/>
+      <c r="L27" s="33"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="21">
+        <v>147</v>
+      </c>
+      <c r="Q27" s="21">
+        <v>268</v>
+      </c>
+      <c r="R27" s="21">
+        <v>344</v>
+      </c>
+      <c r="S27" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="22"/>
+      <c r="U27" s="22"/>
+      <c r="V27" s="21" t="s">
+        <v>34</v>
+      </c>
+      <c r="W27" s="23"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B28" s="25">
+        <v>4</v>
+      </c>
+      <c r="C28" s="21"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="33"/>
+      <c r="H28" s="33"/>
+      <c r="I28" s="33"/>
+      <c r="J28" s="33"/>
+      <c r="K28" s="33"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="21"/>
+      <c r="Q28" s="21"/>
+      <c r="R28" s="21"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="22"/>
+      <c r="U28" s="22"/>
+      <c r="V28" s="21"/>
+      <c r="W28" s="23"/>
+    </row>
+    <row r="29" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B29" s="25">
+        <v>5</v>
+      </c>
+      <c r="C29" s="21"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="33"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="21"/>
+      <c r="Q29" s="21"/>
+      <c r="R29" s="21"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="22"/>
+      <c r="U29" s="22"/>
+      <c r="V29" s="21"/>
+      <c r="W29" s="23"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B30" s="25">
+        <v>6</v>
+      </c>
+      <c r="C30" s="21"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="21"/>
+      <c r="Q30" s="21"/>
+      <c r="R30" s="21"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="22"/>
+      <c r="U30" s="22"/>
+      <c r="V30" s="21"/>
+      <c r="W30" s="23"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B31" s="25">
+        <v>7</v>
+      </c>
+      <c r="C31" s="21"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
+      <c r="K31" s="33"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+      <c r="O31" s="24"/>
+      <c r="P31" s="21"/>
+      <c r="Q31" s="21"/>
+      <c r="R31" s="21"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
+      <c r="V31" s="21"/>
+      <c r="W31" s="23"/>
+    </row>
+    <row r="32" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B32" s="25">
+        <v>8</v>
+      </c>
+      <c r="C32" s="21"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="21"/>
+      <c r="Q32" s="21"/>
+      <c r="R32" s="23"/>
+      <c r="S32" s="23"/>
+      <c r="T32" s="23"/>
+      <c r="U32" s="23"/>
+      <c r="V32" s="23"/>
+      <c r="W32" s="23"/>
+    </row>
+    <row r="33" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B33" s="25">
         <v>9</v>
       </c>
-      <c r="C23" s="54" t="s">
-        <v>38</v>
-      </c>
-      <c r="D23" s="60" t="s">
-        <v>33</v>
-      </c>
-      <c r="E23" s="61"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="60" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="61"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="50" t="s">
-        <v>44</v>
-      </c>
-      <c r="K23" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="L23" s="50" t="s">
-        <v>43</v>
-      </c>
-      <c r="M23" s="52" t="s">
-        <v>40</v>
-      </c>
-      <c r="N23" s="54" t="s">
+      <c r="C33" s="21"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="21"/>
+      <c r="Q33" s="21"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="23"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="23"/>
+      <c r="V33" s="23"/>
+      <c r="W33" s="23"/>
+    </row>
+    <row r="34" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B34" s="25">
         <v>10</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="55"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="3">
-        <v>85</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="5">
-        <v>105</v>
-      </c>
-      <c r="G24" s="3">
-        <v>175</v>
-      </c>
-      <c r="H24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="I24" s="6">
-        <v>215</v>
-      </c>
-      <c r="J24" s="58"/>
-      <c r="K24" s="51"/>
-      <c r="L24" s="51"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="55"/>
-    </row>
-    <row r="25" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B25" s="14">
-        <v>1</v>
-      </c>
-      <c r="C25" s="2">
-        <v>45623</v>
-      </c>
-      <c r="D25" s="56">
-        <v>95</v>
-      </c>
-      <c r="E25" s="57"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="56">
-        <v>199</v>
-      </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
-      <c r="J25" s="2">
-        <v>145</v>
-      </c>
-      <c r="K25" s="2">
-        <v>256</v>
-      </c>
-      <c r="L25" s="2">
-        <v>341</v>
-      </c>
-      <c r="M25" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="N25" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="2:14" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="C26" s="2">
-        <v>45628</v>
-      </c>
-      <c r="D26" s="47">
-        <v>84</v>
-      </c>
-      <c r="E26" s="48"/>
-      <c r="F26" s="49"/>
-      <c r="G26" s="47">
-        <v>180</v>
-      </c>
-      <c r="H26" s="48"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="2">
-        <v>141</v>
-      </c>
-      <c r="K26" s="2">
-        <v>245</v>
-      </c>
-      <c r="L26" s="2">
-        <v>339</v>
-      </c>
-      <c r="M26" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="N26" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="C27" s="2">
-        <v>45627</v>
-      </c>
-      <c r="D27" s="47">
-        <v>101</v>
-      </c>
-      <c r="E27" s="48"/>
-      <c r="F27" s="49"/>
-      <c r="G27" s="47">
-        <v>197</v>
-      </c>
-      <c r="H27" s="48"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="2">
-        <v>147</v>
-      </c>
-      <c r="K27" s="2">
-        <v>268</v>
-      </c>
-      <c r="L27" s="2">
-        <v>344</v>
-      </c>
-      <c r="M27" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="N27" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="28" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="48"/>
-      <c r="F28" s="49"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="48"/>
-      <c r="I28" s="49"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-      <c r="N28" s="2"/>
-    </row>
-    <row r="29" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="48"/>
-      <c r="F29" s="49"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="48"/>
-      <c r="I29" s="49"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="L29" s="2"/>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-    </row>
-    <row r="30" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="49"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="48"/>
-      <c r="I30" s="49"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="L30" s="2"/>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-    </row>
-    <row r="31" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="48"/>
-      <c r="F31" s="49"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="48"/>
-      <c r="I31" s="49"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-    </row>
-    <row r="32" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="48"/>
-      <c r="F32" s="49"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="48"/>
-      <c r="I32" s="49"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="L32" s="2"/>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-    </row>
-    <row r="33" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="48"/>
-      <c r="F33" s="49"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="48"/>
-      <c r="I33" s="49"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="L33" s="2"/>
-      <c r="M33" s="2"/>
-      <c r="N33" s="2"/>
-    </row>
-    <row r="34" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="48"/>
-      <c r="F34" s="49"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="48"/>
-      <c r="I34" s="49"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="L34" s="2"/>
-      <c r="M34" s="2"/>
-      <c r="N34" s="2"/>
-    </row>
-    <row r="35" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="48"/>
-      <c r="F35" s="49"/>
-      <c r="G35" s="47"/>
-      <c r="H35" s="48"/>
-      <c r="I35" s="49"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="L35" s="2"/>
-      <c r="M35" s="2"/>
-      <c r="N35" s="2"/>
-    </row>
-    <row r="36" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="48"/>
-      <c r="F36" s="49"/>
-      <c r="G36" s="47"/>
-      <c r="H36" s="48"/>
-      <c r="I36" s="49"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="L36" s="2"/>
-      <c r="M36" s="2"/>
-      <c r="N36" s="2"/>
-    </row>
-    <row r="37" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="48"/>
-      <c r="F37" s="49"/>
-      <c r="G37" s="47"/>
-      <c r="H37" s="48"/>
-      <c r="I37" s="49"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="L37" s="2"/>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
-    </row>
-    <row r="38" spans="2:14" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="47"/>
-      <c r="E38" s="48"/>
-      <c r="F38" s="49"/>
-      <c r="G38" s="47"/>
-      <c r="H38" s="48"/>
-      <c r="I38" s="49"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="L38" s="2"/>
-      <c r="M38" s="2"/>
-      <c r="N38" s="2"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="33"/>
+      <c r="G34" s="33"/>
+      <c r="H34" s="33"/>
+      <c r="I34" s="33"/>
+      <c r="J34" s="33"/>
+      <c r="K34" s="33"/>
+      <c r="L34" s="33"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="21"/>
+      <c r="Q34" s="21"/>
+      <c r="R34" s="23"/>
+      <c r="S34" s="23"/>
+      <c r="T34" s="23"/>
+      <c r="U34" s="23"/>
+      <c r="V34" s="23"/>
+      <c r="W34" s="23"/>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B35" s="25">
+        <v>11</v>
+      </c>
+      <c r="C35" s="21"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="33"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="33"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+      <c r="O35" s="24"/>
+      <c r="P35" s="21"/>
+      <c r="Q35" s="21"/>
+      <c r="R35" s="23"/>
+      <c r="S35" s="23"/>
+      <c r="T35" s="23"/>
+      <c r="U35" s="23"/>
+      <c r="V35" s="23"/>
+      <c r="W35" s="23"/>
+    </row>
+    <row r="36" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="33"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="33"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="33"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="33"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+      <c r="O36" s="24"/>
+      <c r="P36" s="21"/>
+      <c r="Q36" s="21"/>
+      <c r="R36" s="23"/>
+      <c r="S36" s="23"/>
+      <c r="T36" s="23"/>
+      <c r="U36" s="23"/>
+      <c r="V36" s="23"/>
+      <c r="W36" s="23"/>
+    </row>
+    <row r="37" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="33"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="33"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="33"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="33"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="21"/>
+      <c r="Q37" s="21"/>
+      <c r="R37" s="23"/>
+      <c r="S37" s="23"/>
+      <c r="T37" s="23"/>
+      <c r="U37" s="23"/>
+      <c r="V37" s="23"/>
+      <c r="W37" s="23"/>
+    </row>
+    <row r="38" spans="2:23" x14ac:dyDescent="0.3">
+      <c r="B38" s="21"/>
+      <c r="C38" s="21"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="33"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="33"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="33"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="21"/>
+      <c r="Q38" s="21"/>
+      <c r="R38" s="23"/>
+      <c r="S38" s="23"/>
+      <c r="T38" s="23"/>
+      <c r="U38" s="23"/>
+      <c r="V38" s="23"/>
+      <c r="W38" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="N23:N24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
+  <mergeCells count="85">
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E21:J21"/>
+    <mergeCell ref="E20:J20"/>
+    <mergeCell ref="B10:F10"/>
+    <mergeCell ref="B11:F11"/>
+    <mergeCell ref="B12:F12"/>
+    <mergeCell ref="E13:J13"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E14:J14"/>
+    <mergeCell ref="E15:J15"/>
+    <mergeCell ref="E16:J16"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="E7:J7"/>
+    <mergeCell ref="E8:J8"/>
+    <mergeCell ref="E9:J9"/>
+    <mergeCell ref="E2:J2"/>
+    <mergeCell ref="E4:J4"/>
+    <mergeCell ref="E5:J5"/>
+    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="G38:I38"/>
     <mergeCell ref="D34:F34"/>
     <mergeCell ref="G34:I34"/>
     <mergeCell ref="D35:F35"/>
     <mergeCell ref="G35:I35"/>
     <mergeCell ref="D36:F36"/>
     <mergeCell ref="G36:I36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="G38:I38"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="E18:J18"/>
     <mergeCell ref="E19:J19"/>
@@ -1854,31 +2103,31 @@
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B13:D13"/>
     <mergeCell ref="B15:D15"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
     <mergeCell ref="E17:J17"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="F1:K1"/>
-    <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E21:J21"/>
-    <mergeCell ref="E20:J20"/>
-    <mergeCell ref="B10:F10"/>
-    <mergeCell ref="B11:F11"/>
-    <mergeCell ref="B12:F12"/>
-    <mergeCell ref="E2:J2"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E4:J4"/>
-    <mergeCell ref="E5:J5"/>
-    <mergeCell ref="E6:J6"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.31496062992125984" top="0.35433070866141736" bottom="0.35433070866141736" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape" verticalDpi="0" r:id="rId1"/>
